--- a/Project 2/Documents/OctaveDocuments/SmootherOutput/output1SaltedSmoothenedGraph.xlsx
+++ b/Project 2/Documents/OctaveDocuments/SmootherOutput/output1SaltedSmoothenedGraph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Documents\OctaveDocuments\SmootherOutput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Octave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{349C0FE6-8628-455A-B92E-D0BA897D5A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B1D91A-93E0-4CA4-A39F-361BE4162ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{04EEFEC1-082C-40AD-B82A-BFB8EE262AF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{EEB75021-6EAD-4696-97B3-FF3D0E44F1C6}"/>
   </bookViews>
   <sheets>
     <sheet name="output1SaltedSmoothened" sheetId="1" r:id="rId1"/>
@@ -974,304 +974,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>14.75</c:v>
+                  <c:v>-9.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.55</c:v>
+                  <c:v>-9.3333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.716666666666598</c:v>
+                  <c:v>-2.6666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.145238095238</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.487414965986403</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.764188532555806</c:v>
+                  <c:v>28.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.485263084825704</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.962409511909698</c:v>
+                  <c:v>82.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109.315980161327</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>126.394807536866</c:v>
+                  <c:v>115.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>136.66759960144299</c:v>
+                  <c:v>109.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>156.05405532851901</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>168.44520892383201</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>196.45240912196999</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>231.99309619633101</c:v>
+                  <c:v>207.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>266.27010203459002</c:v>
+                  <c:v>244.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>308.530801050413</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>333.25628561161898</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>359.57959838523101</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>403.48095500675203</c:v>
+                  <c:v>413.33333333333297</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>435.47383414337099</c:v>
+                  <c:v>477.33333333333297</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>487.21919821933602</c:v>
+                  <c:v>505.33333333333297</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>545.73914105278004</c:v>
+                  <c:v>527.33333333333303</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>583.49031048792597</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>634.20694996572001</c:v>
+                  <c:v>635.66666666666595</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>685.20520021520304</c:v>
+                  <c:v>683</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>732.70035152412095</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>796.873214529292</c:v>
+                  <c:v>751.33333333333303</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>861.25410946694501</c:v>
+                  <c:v>806.66666666666595</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>922.11823936005101</c:v>
+                  <c:v>883.66666666666595</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>981.035080479469</c:v>
+                  <c:v>971.33333333333303</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1045.4867756152</c:v>
+                  <c:v>1062.3333333333301</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1105.23429935067</c:v>
+                  <c:v>1125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1171.3937364921901</c:v>
+                  <c:v>1187.6666666666599</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1236.73068735115</c:v>
+                  <c:v>1231</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1296.47981759914</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1367.2291773489201</c:v>
+                  <c:v>1355.3333333333301</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1442.20566889989</c:v>
+                  <c:v>1426.3333333333301</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1527.13066626399</c:v>
+                  <c:v>1503.6666666666599</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1611.79507321611</c:v>
+                  <c:v>1584.3333333333301</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1692.59020119714</c:v>
+                  <c:v>1668.6666666666599</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1765.78799152532</c:v>
+                  <c:v>1755.3333333333301</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1843.1676094197901</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1935.3636860203201</c:v>
+                  <c:v>1967</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2022.6170409950601</c:v>
+                  <c:v>2030.3333333333301</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2121.4497623478801</c:v>
+                  <c:v>2098.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2212.9186413376101</c:v>
+                  <c:v>2196</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2296.9979206686498</c:v>
+                  <c:v>2298</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2394.6237606220202</c:v>
+                  <c:v>2416</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2492.0771889468901</c:v>
+                  <c:v>2512.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2600.2426957482198</c:v>
+                  <c:v>2618.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2703.9919493310199</c:v>
+                  <c:v>2728.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2809.7588334323</c:v>
+                  <c:v>2831.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2908.1419255016499</c:v>
+                  <c:v>2930.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3019.5561011807099</c:v>
+                  <c:v>3010.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3131.2081228735201</c:v>
+                  <c:v>3126</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3254.8437356508398</c:v>
+                  <c:v>3242.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3371.65827995786</c:v>
+                  <c:v>3378</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3478.5300197831698</c:v>
+                  <c:v>3485.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3595.4331479131201</c:v>
+                  <c:v>3625.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3709.9459210934501</c:v>
+                  <c:v>3752.3333333333298</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3829.7012983985301</c:v>
+                  <c:v>3874.6666666666601</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3959.7257667721601</c:v>
+                  <c:v>3992</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4097.6247123234498</c:v>
+                  <c:v>4118.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4230.8645396420197</c:v>
+                  <c:v>4250.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4369.45928839109</c:v>
+                  <c:v>4367.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4508.5640771937897</c:v>
+                  <c:v>4505</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4643.41255788955</c:v>
+                  <c:v>4621.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4781.7765604963497</c:v>
+                  <c:v>4753.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4926.2504565113804</c:v>
+                  <c:v>4887.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5060.0627964138903</c:v>
+                  <c:v>5025</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5196.7271162030902</c:v>
+                  <c:v>5170.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5341.2914813040497</c:v>
+                  <c:v>5318.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5489.2973419887203</c:v>
+                  <c:v>5465.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5643.9022770708298</c:v>
+                  <c:v>5614.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5797.49872862337</c:v>
+                  <c:v>5758.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5941.24262109756</c:v>
+                  <c:v>5934.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6088.9490895416802</c:v>
+                  <c:v>6085</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6246.2414913232296</c:v>
+                  <c:v>6252.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6402.6333145660601</c:v>
+                  <c:v>6409.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6564.2605564901396</c:v>
+                  <c:v>6598</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6733.5907660541998</c:v>
+                  <c:v>6758.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6900.3549481586297</c:v>
+                  <c:v>6924.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7077.74375295756</c:v>
+                  <c:v>7096</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7250.0984953100497</c:v>
+                  <c:v>7241.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7424.0281709180299</c:v>
+                  <c:v>7415.6666666666597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7588.1243455979502</c:v>
+                  <c:v>7566</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7760.60728740372</c:v>
+                  <c:v>7743.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7937.8228291313799</c:v>
+                  <c:v>7895.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8103.6506374475803</c:v>
+                  <c:v>8096.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8282.5829648546696</c:v>
+                  <c:v>8300.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8465.29377591909</c:v>
+                  <c:v>8510.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8648.2181968887598</c:v>
+                  <c:v>8696.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8838.2992768089298</c:v>
+                  <c:v>8871.6666666666606</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9033.9730356595392</c:v>
+                  <c:v>9042.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9216.0700727653202</c:v>
+                  <c:v>9223.6666666666606</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9408.47748360482</c:v>
+                  <c:v>9429.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9506.0867653382793</c:v>
+                  <c:v>9622</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9578.3268643416795</c:v>
+                  <c:v>9820.3333333333303</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9619.7227783211893</c:v>
+                  <c:v>9902.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,7 +1279,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A36-49AB-BCB7-E4ECC36E1949}"/>
+              <c16:uniqueId val="{00000000-8C6D-468D-BADE-D5E381CB1198}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1291,11 +1291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1168411136"/>
-        <c:axId val="1168410656"/>
+        <c:axId val="1334268687"/>
+        <c:axId val="1334269647"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1168411136"/>
+        <c:axId val="1334268687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,12 +1407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1168410656"/>
+        <c:crossAx val="1334269647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1168410656"/>
+        <c:axId val="1334269647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,7 +1524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1168411136"/>
+        <c:crossAx val="1334268687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2134,22 +2134,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0B12BA-4D5A-8B46-A986-6E8751D06B89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF372116-E4F3-C090-43EE-DC3ADE0E1C6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F651D6-CA06-49B7-B3FB-44D48A53A787}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D747CE3-8013-40E7-A2C4-124CF4314287}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>14.75</v>
+        <v>-9.5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>31.55</v>
+        <v>-9.3333333333333304</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2516,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>39.716666666666598</v>
+        <v>-2.6666666666666599</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>43.145238095238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2532,7 +2532,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>54.487414965986403</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2540,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>64.764188532555806</v>
+        <v>28.3333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2548,7 +2548,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>77.485263084825704</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2556,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>91.962409511909698</v>
+        <v>82.6666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2564,7 +2564,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>109.315980161327</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2572,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>126.394807536866</v>
+        <v>115.333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2580,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>136.66759960144299</v>
+        <v>109.666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2588,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>156.05405532851901</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2596,7 +2596,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>168.44520892383201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2604,7 +2604,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>196.45240912196999</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2612,7 +2612,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>231.99309619633101</v>
+        <v>207.666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2620,7 +2620,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>266.27010203459002</v>
+        <v>244.333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2628,7 +2628,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>308.530801050413</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2636,7 +2636,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>333.25628561161898</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2644,7 +2644,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>359.57959838523101</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2652,7 +2652,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>403.48095500675203</v>
+        <v>413.33333333333297</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2660,7 +2660,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>435.47383414337099</v>
+        <v>477.33333333333297</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2668,7 +2668,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>487.21919821933602</v>
+        <v>505.33333333333297</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2676,7 +2676,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>545.73914105278004</v>
+        <v>527.33333333333303</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2684,7 +2684,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>583.49031048792597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2692,7 +2692,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>634.20694996572001</v>
+        <v>635.66666666666595</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2700,7 +2700,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>685.20520021520304</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2708,7 +2708,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>732.70035152412095</v>
+        <v>716</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2716,7 +2716,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>796.873214529292</v>
+        <v>751.33333333333303</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2724,7 +2724,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>861.25410946694501</v>
+        <v>806.66666666666595</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2732,7 +2732,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>922.11823936005101</v>
+        <v>883.66666666666595</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2740,7 +2740,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>981.035080479469</v>
+        <v>971.33333333333303</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2748,7 +2748,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1045.4867756152</v>
+        <v>1062.3333333333301</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2756,7 +2756,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1105.23429935067</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2764,7 +2764,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1171.3937364921901</v>
+        <v>1187.6666666666599</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2772,7 +2772,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1236.73068735115</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2780,7 +2780,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1296.47981759914</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2788,7 +2788,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1367.2291773489201</v>
+        <v>1355.3333333333301</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2796,7 +2796,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1442.20566889989</v>
+        <v>1426.3333333333301</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2804,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1527.13066626399</v>
+        <v>1503.6666666666599</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2812,7 +2812,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1611.79507321611</v>
+        <v>1584.3333333333301</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2820,7 +2820,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1692.59020119714</v>
+        <v>1668.6666666666599</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2828,7 +2828,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1765.78799152532</v>
+        <v>1755.3333333333301</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2836,7 +2836,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1843.1676094197901</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2844,7 +2844,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1935.3636860203201</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2852,7 +2852,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2022.6170409950601</v>
+        <v>2030.3333333333301</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2860,7 +2860,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2121.4497623478801</v>
+        <v>2098.3333333333298</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2868,7 +2868,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2212.9186413376101</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2876,7 +2876,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2296.9979206686498</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2884,7 +2884,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2394.6237606220202</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2892,7 +2892,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2492.0771889468901</v>
+        <v>2512.6666666666601</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2900,7 +2900,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2600.2426957482198</v>
+        <v>2618.3333333333298</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2908,7 +2908,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2703.9919493310199</v>
+        <v>2728.6666666666601</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2916,7 +2916,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2809.7588334323</v>
+        <v>2831.6666666666601</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2924,7 +2924,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2908.1419255016499</v>
+        <v>2930.6666666666601</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2932,7 +2932,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>3019.5561011807099</v>
+        <v>3010.3333333333298</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2940,7 +2940,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>3131.2081228735201</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2948,7 +2948,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>3254.8437356508398</v>
+        <v>3242.3333333333298</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2956,7 +2956,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>3371.65827995786</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2964,7 +2964,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>3478.5300197831698</v>
+        <v>3485.3333333333298</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2972,7 +2972,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>3595.4331479131201</v>
+        <v>3625.3333333333298</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2980,7 +2980,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3709.9459210934501</v>
+        <v>3752.3333333333298</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2988,7 +2988,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>3829.7012983985301</v>
+        <v>3874.6666666666601</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2996,7 +2996,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>3959.7257667721601</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3004,7 +3004,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>4097.6247123234498</v>
+        <v>4118.3333333333303</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3012,7 +3012,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>4230.8645396420197</v>
+        <v>4250.6666666666597</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3020,7 +3020,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>4369.45928839109</v>
+        <v>4367.6666666666597</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3028,7 +3028,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>4508.5640771937897</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3036,7 +3036,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>4643.41255788955</v>
+        <v>4621.6666666666597</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3044,7 +3044,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>4781.7765604963497</v>
+        <v>4753.3333333333303</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3052,7 +3052,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>4926.2504565113804</v>
+        <v>4887.3333333333303</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3060,7 +3060,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>5060.0627964138903</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3068,7 +3068,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>5196.7271162030902</v>
+        <v>5170.3333333333303</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3076,7 +3076,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>5341.2914813040497</v>
+        <v>5318.6666666666597</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3084,7 +3084,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>5489.2973419887203</v>
+        <v>5465.3333333333303</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3092,7 +3092,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>5643.9022770708298</v>
+        <v>5614.6666666666597</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3100,7 +3100,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>5797.49872862337</v>
+        <v>5758.6666666666597</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3108,7 +3108,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>5941.24262109756</v>
+        <v>5934.6666666666597</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -3116,7 +3116,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>6088.9490895416802</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3124,7 +3124,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>6246.2414913232296</v>
+        <v>6252.6666666666597</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3132,7 +3132,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>6402.6333145660601</v>
+        <v>6409.6666666666597</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3140,7 +3140,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>6564.2605564901396</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3148,7 +3148,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>6733.5907660541998</v>
+        <v>6758.6666666666597</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3156,7 +3156,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>6900.3549481586297</v>
+        <v>6924.3333333333303</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3164,7 +3164,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7077.74375295756</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3172,7 +3172,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7250.0984953100497</v>
+        <v>7241.6666666666597</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3180,7 +3180,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7424.0281709180299</v>
+        <v>7415.6666666666597</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3188,7 +3188,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7588.1243455979502</v>
+        <v>7566</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3196,7 +3196,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7760.60728740372</v>
+        <v>7743.3333333333303</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3204,7 +3204,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7937.8228291313799</v>
+        <v>7895.3333333333303</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3212,7 +3212,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>8103.6506374475803</v>
+        <v>8096.3333333333303</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3220,7 +3220,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>8282.5829648546696</v>
+        <v>8300.3333333333303</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3228,7 +3228,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>8465.29377591909</v>
+        <v>8510.3333333333303</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3236,7 +3236,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>8648.2181968887598</v>
+        <v>8696.3333333333303</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3244,7 +3244,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>8838.2992768089298</v>
+        <v>8871.6666666666606</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3252,7 +3252,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>9033.9730356595392</v>
+        <v>9042.3333333333303</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3260,7 +3260,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>9216.0700727653202</v>
+        <v>9223.6666666666606</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3268,7 +3268,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>9408.47748360482</v>
+        <v>9429.3333333333303</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3276,7 +3276,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>9506.0867653382793</v>
+        <v>9622</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3284,7 +3284,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>9578.3268643416795</v>
+        <v>9820.3333333333303</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3292,7 +3292,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>9619.7227783211893</v>
+        <v>9902.5</v>
       </c>
     </row>
   </sheetData>
